--- a/proj/compiler/Precedencni-tabulka.xlsx
+++ b/proj/compiler/Precedencni-tabulka.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Snail\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Snail\Documents\GitHub\IFJ\proj\compiler\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,13 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="11">
-  <si>
-    <t xml:space="preserve"> + or -</t>
-  </si>
-  <si>
-    <t>* or /</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="14">
   <si>
     <t>//</t>
   </si>
@@ -57,6 +51,21 @@
   </si>
   <si>
     <t xml:space="preserve"> =</t>
+  </si>
+  <si>
+    <t>+</t>
+  </si>
+  <si>
+    <t>-</t>
+  </si>
+  <si>
+    <t>*</t>
+  </si>
+  <si>
+    <t>/</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> +</t>
   </si>
 </sst>
 </file>
@@ -393,7 +402,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I9"/>
+  <dimension ref="A1:K11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="K6" sqref="K6"/>
@@ -402,257 +411,381 @@
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="2" width="5.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="5.5703125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="3.85546875" customWidth="1"/>
-    <col min="5" max="5" width="2.7109375" customWidth="1"/>
-    <col min="6" max="6" width="2.85546875" customWidth="1"/>
-    <col min="7" max="7" width="3" customWidth="1"/>
-    <col min="8" max="8" width="2.7109375" customWidth="1"/>
-    <col min="9" max="9" width="3" customWidth="1"/>
+    <col min="3" max="3" width="4" customWidth="1"/>
+    <col min="4" max="4" width="4.85546875" customWidth="1"/>
+    <col min="5" max="5" width="4.28515625" customWidth="1"/>
+    <col min="6" max="6" width="5" customWidth="1"/>
+    <col min="7" max="7" width="5.42578125" customWidth="1"/>
+    <col min="8" max="8" width="4" customWidth="1"/>
+    <col min="9" max="9" width="5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" s="1"/>
       <c r="B1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="K2" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="J3" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="K3" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="J4" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="K4" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H5" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I5" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="J5" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="K5" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="H2" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="I2" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
+      <c r="B6" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H6" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I6" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="J6" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="K6" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="G3" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="H3" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="I3" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A4" s="1" t="s">
+      <c r="B7" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="G7" s="1"/>
+      <c r="H7" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I7" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="J7" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="K7" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="F4" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="G4" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="H4" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="I4" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A5" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="E5" s="1"/>
-      <c r="F5" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="G5" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="H5" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="I5" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A6" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="F6" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="G6" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="H6" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="I6" s="1"/>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A7" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E7" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="F7" s="1"/>
-      <c r="G7" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="H7" s="1"/>
-      <c r="I7" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A8" s="1" t="s">
-        <v>6</v>
-      </c>
       <c r="B8" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="F8" s="1"/>
+        <v>7</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>7</v>
+      </c>
       <c r="G8" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="H8" s="1"/>
+        <v>7</v>
+      </c>
+      <c r="H8" s="1" t="s">
+        <v>7</v>
+      </c>
       <c r="I8" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J8" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="K8" s="1"/>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="G9" s="1"/>
-      <c r="H9" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="I9" s="1"/>
+        <v>6</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H9" s="1"/>
+      <c r="I9" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="J9" s="1"/>
+      <c r="K9" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A10" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="G10" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H10" s="1"/>
+      <c r="I10" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="J10" s="1"/>
+      <c r="K10" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A11" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="G11" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="H11" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I11" s="1"/>
+      <c r="J11" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="K11" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
